--- a/excel_data_processing/sample_data.xlsx
+++ b/excel_data_processing/sample_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.22.159.180\share\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0496E0B-4525-4CBB-B1E5-183068696AD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20415" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20055" windowHeight="7230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="食べたもの一覧" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
   <si>
     <t>食べたもの</t>
     <rPh sb="0" eb="1">
@@ -59,6 +65,62 @@
     <t>値段</t>
     <rPh sb="0" eb="2">
       <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べた場所</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近所の定食屋</t>
+    <rPh sb="0" eb="2">
+      <t>キンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>テイショクヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実家の近くの定食屋</t>
+    <rPh sb="0" eb="2">
+      <t>ジッカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>テイショクヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社の近くの定食屋</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>テイショクヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繁華街の定食屋</t>
+    <rPh sb="0" eb="3">
+      <t>ハンカガイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テイショクヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -66,8 +128,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +191,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -175,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,9 +277,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,6 +329,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,295 +522,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.25" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>43101</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>43102</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>43103</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>43104</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>43105</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>43106</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>43107</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>43108</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2">
         <v>43109</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>43110</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2">
         <v>43111</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.25">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>43112</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.25">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>43113</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.25">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>43114</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>43115</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2">
         <v>43116</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2">
         <v>43117</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>43118</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>43119</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="2">
         <v>43120</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>43121</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25">
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2">
         <v>43122</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="2">
         <v>43123</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2">
         <v>43124</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="2">
         <v>43125</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2">
         <v>43126</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="2">
         <v>43127</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25">
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="2">
         <v>43128</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="2">
         <v>43129</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25">
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>43130</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="2">
         <v>43131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -712,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -720,7 +924,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -728,7 +932,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,7 +940,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -744,7 +948,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -752,7 +956,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25">
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
